--- a/src/main/resources/files/2.xlsx
+++ b/src/main/resources/files/2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Личное\Inbulk\InbulkJava\InbulkJava\src\main\resources\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Javaschool\Java\InbulkArJava\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC38D6BF-F317-4D3C-B5A1-D0CCEDFBD074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED8F080-F9E4-48D3-9B43-9A1343FE0131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1176" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t/>
   </si>
@@ -38,29 +38,129 @@
     <t/>
   </si>
   <si>
-    <t>7:58
-20:07
-12:09</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Каримова 
-Зироат</t>
-  </si>
-  <si>
-    <t>36:23</t>
-  </si>
-  <si>
-    <t>8:04
-20:04
-11:59</t>
-  </si>
-  <si>
-    <t>7:45
+    <t>3</t>
+  </si>
+  <si>
+    <t>Арстаналы Кызы 
+Гуласел</t>
+  </si>
+  <si>
+    <t>7:55
+16:59
+9:04</t>
+  </si>
+  <si>
+    <t>7:56
 20:00
-12:14</t>
+12:04</t>
+  </si>
+  <si>
+    <t>7:50
+20:01
+12:10</t>
+  </si>
+  <si>
+    <t>7:47
+20:01
+12:13</t>
+  </si>
+  <si>
+    <t>8:01
+17:03
+9:02</t>
+  </si>
+  <si>
+    <t>7:49
+20:05
+12:16</t>
+  </si>
+  <si>
+    <t>8:06
+17:06
+8:59</t>
+  </si>
+  <si>
+    <t>7:57
+16:57
+8:59</t>
+  </si>
+  <si>
+    <t>7:47
+20:00
+12:12</t>
+  </si>
+  <si>
+    <t>7:47
+19:52
+12:04</t>
+  </si>
+  <si>
+    <t>231:23</t>
+  </si>
+  <si>
+    <t>8:12
+17:07
+8:55</t>
+  </si>
+  <si>
+    <t>7:54
+19:12
+11:18</t>
+  </si>
+  <si>
+    <t>12:16
+20:03
+7:47</t>
+  </si>
+  <si>
+    <t>7:28
+19:49
+12:21</t>
+  </si>
+  <si>
+    <t>7:41
+20:00
+12:18</t>
+  </si>
+  <si>
+    <t>7:43
+17:02
+9:19</t>
+  </si>
+  <si>
+    <t>7:57
+17:01
+9:03</t>
+  </si>
+  <si>
+    <t>7:43
+20:05
+12:22</t>
+  </si>
+  <si>
+    <t>7:55
+20:02
+12:06</t>
+  </si>
+  <si>
+    <t>7:41
+17:02
+9:21</t>
+  </si>
+  <si>
+    <t>7:52
+17:01
+9:08</t>
+  </si>
+  <si>
+    <t>7:59
+16:11
+8:12</t>
+  </si>
+  <si>
+    <t>7:59
+17:03
+9:00</t>
   </si>
 </sst>
 </file>
@@ -77,11 +177,15 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -149,11 +253,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -180,9 +287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,9 +327,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,26 +362,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,26 +397,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -503,26 +576,26 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="19" width="6.7109375" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="4" max="19" width="6.6640625" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="42.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" ht="42.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -538,78 +611,78 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>7</v>
+      <c r="T1" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="42.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+    <row r="2" spans="1:20" ht="42.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>2</v>
@@ -618,18 +691,18 @@
         <v>2</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/src/main/resources/files/2.xlsx
+++ b/src/main/resources/files/2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Javaschool\Java\InbulkArJava\src\main\resources\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandr\Documents\inbulk\ARJava\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED8F080-F9E4-48D3-9B43-9A1343FE0131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1796A3B6-95B4-4CF8-B7B7-3CAE9CE2D2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>--
---
---</t>
-  </si>
-  <si>
-    <t>--
---
---</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="5">
   <si>
     <t/>
   </si>
@@ -45,122 +32,12 @@
 Гуласел</t>
   </si>
   <si>
-    <t>7:55
-16:59
-9:04</t>
-  </si>
-  <si>
-    <t>7:56
-20:00
-12:04</t>
-  </si>
-  <si>
-    <t>7:50
-20:01
-12:10</t>
-  </si>
-  <si>
-    <t>7:47
-20:01
-12:13</t>
-  </si>
-  <si>
-    <t>8:01
-17:03
-9:02</t>
-  </si>
-  <si>
-    <t>7:49
-20:05
-12:16</t>
-  </si>
-  <si>
-    <t>8:06
-17:06
-8:59</t>
-  </si>
-  <si>
-    <t>7:57
-16:57
-8:59</t>
-  </si>
-  <si>
-    <t>7:47
-20:00
-12:12</t>
-  </si>
-  <si>
-    <t>7:47
-19:52
-12:04</t>
-  </si>
-  <si>
     <t>231:23</t>
   </si>
   <si>
-    <t>8:12
-17:07
-8:55</t>
-  </si>
-  <si>
-    <t>7:54
-19:12
-11:18</t>
-  </si>
-  <si>
-    <t>12:16
-20:03
-7:47</t>
-  </si>
-  <si>
-    <t>7:28
-19:49
-12:21</t>
-  </si>
-  <si>
-    <t>7:41
-20:00
-12:18</t>
-  </si>
-  <si>
-    <t>7:43
-17:02
-9:19</t>
-  </si>
-  <si>
-    <t>7:57
-17:01
-9:03</t>
-  </si>
-  <si>
-    <t>7:43
-20:05
-12:22</t>
-  </si>
-  <si>
-    <t>7:55
-20:02
-12:06</t>
-  </si>
-  <si>
-    <t>7:41
-17:02
-9:21</t>
-  </si>
-  <si>
-    <t>7:52
-17:01
-9:08</t>
-  </si>
-  <si>
-    <t>7:59
-16:11
-8:12</t>
-  </si>
-  <si>
-    <t>7:59
-17:03
-9:00</t>
+    <t>18:00
+08:00
+--</t>
   </si>
 </sst>
 </file>
@@ -253,12 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -576,7 +450,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -589,120 +463,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="42.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="42.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/src/main/resources/files/2.xlsx
+++ b/src/main/resources/files/2.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandr\Documents\inbulk\ARJava\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1796A3B6-95B4-4CF8-B7B7-3CAE9CE2D2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06E1E43-4707-4056-925B-5E49FE495937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t/>
   </si>
@@ -35,16 +35,256 @@
     <t>231:23</t>
   </si>
   <si>
-    <t>18:00
-08:00
+    <t>34</t>
+  </si>
+  <si>
+    <t>Шаинбеков 
+Толиб</t>
+  </si>
+  <si>
+    <t>--
+--
 --</t>
+  </si>
+  <si>
+    <t>7:05
+15:45
+8:40</t>
+  </si>
+  <si>
+    <t>7:42
+16:50
+9:08</t>
+  </si>
+  <si>
+    <t>7:35
+15:07
+7:32</t>
+  </si>
+  <si>
+    <t>6:36
+16:58
+10:21</t>
+  </si>
+  <si>
+    <t>7:39
+16:53
+9:14</t>
+  </si>
+  <si>
+    <t>7:40
+17:00
+9:20</t>
+  </si>
+  <si>
+    <t>7:43
+16:44
+9:00</t>
+  </si>
+  <si>
+    <t>7:49
+19:45
+11:56</t>
+  </si>
+  <si>
+    <t>7:37
+17:24
+9:46</t>
+  </si>
+  <si>
+    <t>6:38
+17:01
+10:22</t>
+  </si>
+  <si>
+    <t>6:42
+16:55
+10:12</t>
+  </si>
+  <si>
+    <t>7:47
+16:52
+9:04</t>
+  </si>
+  <si>
+    <t>7:49
+19:46
+11:56</t>
+  </si>
+  <si>
+    <t>209:26</t>
+  </si>
+  <si>
+    <t>7:38
+16:51
+9:12</t>
+  </si>
+  <si>
+    <t>8:07
+16:50
+8:43</t>
+  </si>
+  <si>
+    <t>7:39
+16:53
+9:13</t>
+  </si>
+  <si>
+    <t>7:45
+19:52
+12:06</t>
+  </si>
+  <si>
+    <t>7:37
+19:52
+12:15</t>
+  </si>
+  <si>
+    <t>7:23
+16:52
+9:29</t>
+  </si>
+  <si>
+    <t>7:41
+8:20
+0:38</t>
+  </si>
+  <si>
+    <t>7:48
+16:52
+9:04</t>
+  </si>
+  <si>
+    <t>7:47
+16:52
+14:00</t>
+  </si>
+  <si>
+    <t>7:42
+19:48
+12:05</t>
+  </si>
+  <si>
+    <t>7:55
+16:59
+9:04</t>
+  </si>
+  <si>
+    <t>7:56
+20:00
+12:04</t>
+  </si>
+  <si>
+    <t>7:50
+20:01
+12:10</t>
+  </si>
+  <si>
+    <t>7:47
+20:01
+12:13</t>
+  </si>
+  <si>
+    <t>8:01
+17:03
+9:02</t>
+  </si>
+  <si>
+    <t>7:49
+20:05
+12:16</t>
+  </si>
+  <si>
+    <t>8:06
+17:06
+8:59</t>
+  </si>
+  <si>
+    <t>7:57
+16:57
+8:59</t>
+  </si>
+  <si>
+    <t>7:47
+20:00
+12:12</t>
+  </si>
+  <si>
+    <t>7:47
+19:52
+12:04</t>
+  </si>
+  <si>
+    <t>8:12
+17:07
+8:55</t>
+  </si>
+  <si>
+    <t>7:54
+19:12
+11:18</t>
+  </si>
+  <si>
+    <t>12:16
+20:03
+7:47</t>
+  </si>
+  <si>
+    <t>7:28
+19:49
+12:21</t>
+  </si>
+  <si>
+    <t>7:41
+20:00
+12:18</t>
+  </si>
+  <si>
+    <t>7:43
+17:02
+9:19</t>
+  </si>
+  <si>
+    <t>7:57
+17:01
+9:03</t>
+  </si>
+  <si>
+    <t>7:43
+20:05
+12:22</t>
+  </si>
+  <si>
+    <t>7:55
+20:02
+12:06</t>
+  </si>
+  <si>
+    <t>7:41
+17:02
+9:21</t>
+  </si>
+  <si>
+    <t>7:52
+17:01
+9:08</t>
+  </si>
+  <si>
+    <t>7:59
+16:11
+8:12</t>
+  </si>
+  <si>
+    <t>7:59
+17:03
+9:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -57,15 +297,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,13 +315,8 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,36 +339,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -447,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -473,54 +683,54 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -529,59 +739,181 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.79" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/src/main/resources/files/2.xlsx
+++ b/src/main/resources/files/2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandr\Documents\inbulk\ARJava\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06E1E43-4707-4056-925B-5E49FE495937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B762C3-94D6-42B4-9A69-41AFC9334697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t/>
   </si>
@@ -33,136 +33,11 @@
   </si>
   <si>
     <t>231:23</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Шаинбеков 
-Толиб</t>
   </si>
   <si>
     <t>--
 --
 --</t>
-  </si>
-  <si>
-    <t>7:05
-15:45
-8:40</t>
-  </si>
-  <si>
-    <t>7:42
-16:50
-9:08</t>
-  </si>
-  <si>
-    <t>7:35
-15:07
-7:32</t>
-  </si>
-  <si>
-    <t>6:36
-16:58
-10:21</t>
-  </si>
-  <si>
-    <t>7:39
-16:53
-9:14</t>
-  </si>
-  <si>
-    <t>7:40
-17:00
-9:20</t>
-  </si>
-  <si>
-    <t>7:43
-16:44
-9:00</t>
-  </si>
-  <si>
-    <t>7:49
-19:45
-11:56</t>
-  </si>
-  <si>
-    <t>7:37
-17:24
-9:46</t>
-  </si>
-  <si>
-    <t>6:38
-17:01
-10:22</t>
-  </si>
-  <si>
-    <t>6:42
-16:55
-10:12</t>
-  </si>
-  <si>
-    <t>7:47
-16:52
-9:04</t>
-  </si>
-  <si>
-    <t>7:49
-19:46
-11:56</t>
-  </si>
-  <si>
-    <t>209:26</t>
-  </si>
-  <si>
-    <t>7:38
-16:51
-9:12</t>
-  </si>
-  <si>
-    <t>8:07
-16:50
-8:43</t>
-  </si>
-  <si>
-    <t>7:39
-16:53
-9:13</t>
-  </si>
-  <si>
-    <t>7:45
-19:52
-12:06</t>
-  </si>
-  <si>
-    <t>7:37
-19:52
-12:15</t>
-  </si>
-  <si>
-    <t>7:23
-16:52
-9:29</t>
-  </si>
-  <si>
-    <t>7:41
-8:20
-0:38</t>
-  </si>
-  <si>
-    <t>7:48
-16:52
-9:04</t>
-  </si>
-  <si>
-    <t>7:47
-16:52
-14:00</t>
-  </si>
-  <si>
-    <t>7:42
-19:48
-12:05</t>
   </si>
   <si>
     <t>7:55
@@ -657,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -683,49 +558,49 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>0</v>
@@ -739,181 +614,61 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="36" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="36" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.79" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/src/main/resources/files/2.xlsx
+++ b/src/main/resources/files/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandr\Documents\inbulk\ARJava\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B762C3-94D6-42B4-9A69-41AFC9334697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA11B71-BCE3-4817-81CE-6380D81497B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -172,8 +172,19 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +199,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -218,14 +241,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -535,7 +567,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="D1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -547,26 +579,26 @@
     <col min="20" max="20" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="42.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -578,16 +610,16 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -605,18 +637,18 @@
       <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="42.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -634,10 +666,10 @@
       <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -655,13 +687,13 @@
       <c r="Q2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="2"/>
+      <c r="T2" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/src/main/resources/files/2.xlsx
+++ b/src/main/resources/files/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandr\Documents\inbulk\ARJava\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA11B71-BCE3-4817-81CE-6380D81497B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E6C90A-4846-43E8-B2A7-0399CB1C314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
   <si>
     <t/>
   </si>
@@ -153,6 +153,276 @@
     <t>7:59
 17:03
 9:00</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Джамгирчиев 
+Майрамбек</t>
+  </si>
+  <si>
+    <t>7:42
+20:08
+12:26</t>
+  </si>
+  <si>
+    <t>8:00
+20:06
+12:05</t>
+  </si>
+  <si>
+    <t>7:50
+20:03
+12:13</t>
+  </si>
+  <si>
+    <t>7:52
+20:05
+12:13</t>
+  </si>
+  <si>
+    <t>7:59
+17:08
+9:08</t>
+  </si>
+  <si>
+    <t>7:51
+17:02
+9:10</t>
+  </si>
+  <si>
+    <t>7:52
+17:04
+9:11</t>
+  </si>
+  <si>
+    <t>7:52
+20:04
+12:11</t>
+  </si>
+  <si>
+    <t>7:54
+20:02
+12:08</t>
+  </si>
+  <si>
+    <t>263:36</t>
+  </si>
+  <si>
+    <t>7:57
+17:01
+9:04</t>
+  </si>
+  <si>
+    <t>7:58
+17:02
+9:04</t>
+  </si>
+  <si>
+    <t>7:56
+20:03
+12:06</t>
+  </si>
+  <si>
+    <t>8:01
+20:04
+12:02</t>
+  </si>
+  <si>
+    <t>7:58
+20:02
+12:04</t>
+  </si>
+  <si>
+    <t>7:52
+20:02
+12:09</t>
+  </si>
+  <si>
+    <t>7:59
+17:06
+9:06</t>
+  </si>
+  <si>
+    <t>8:00
+17:10
+9:10</t>
+  </si>
+  <si>
+    <t>7:56
+20:06
+12:10</t>
+  </si>
+  <si>
+    <t>7:56
+20:07
+12:11</t>
+  </si>
+  <si>
+    <t>7:54
+21:58
+14:04</t>
+  </si>
+  <si>
+    <t>7:53
+20:01
+12:07</t>
+  </si>
+  <si>
+    <t>7:58
+17:10
+9:12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Жороева 
+Саида</t>
+  </si>
+  <si>
+    <t>8:00
+17:06
+9:05</t>
+  </si>
+  <si>
+    <t>8:20
+19:26
+11:06</t>
+  </si>
+  <si>
+    <t>7:58
+20:04
+12:05</t>
+  </si>
+  <si>
+    <t>8:02
+20:04
+12:02</t>
+  </si>
+  <si>
+    <t>8:05
+17:06
+9:01</t>
+  </si>
+  <si>
+    <t>7:58
+17:02
+9:03</t>
+  </si>
+  <si>
+    <t>7:59
+16:58
+8:59</t>
+  </si>
+  <si>
+    <t>7:53
+19:59
+12:06</t>
+  </si>
+  <si>
+    <t>7:58
+20:00
+12:02</t>
+  </si>
+  <si>
+    <t>237:37</t>
+  </si>
+  <si>
+    <t>7:59
+17:03
+9:03</t>
+  </si>
+  <si>
+    <t>8:01
+17:06
+9:05</t>
+  </si>
+  <si>
+    <t>8:04
+20:06
+12:02</t>
+  </si>
+  <si>
+    <t>7:58
+20:00
+12:01</t>
+  </si>
+  <si>
+    <t>8:01
+20:03
+12:01</t>
+  </si>
+  <si>
+    <t>8:05
+17:06
+9:00</t>
+  </si>
+  <si>
+    <t>8:02
+17:06
+9:04</t>
+  </si>
+  <si>
+    <t>8:02
+20:05
+12:02</t>
+  </si>
+  <si>
+    <t>8:05
+20:04
+11:59</t>
+  </si>
+  <si>
+    <t>9:00
+20:02
+11:01</t>
+  </si>
+  <si>
+    <t>7:05
+15:06
+8:00</t>
+  </si>
+  <si>
+    <t>8:04
+17:07
+9:02</t>
+  </si>
+  <si>
+    <t>7:59
+17:02
+9:03</t>
+  </si>
+  <si>
+    <t>7:58
+16:32
+8:34</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Каримова 
+Зироат</t>
+  </si>
+  <si>
+    <t>36:23</t>
+  </si>
+  <si>
+    <t>7:58
+20:07
+12:09</t>
+  </si>
+  <si>
+    <t>8:04
+20:04
+11:59</t>
+  </si>
+  <si>
+    <t>7:45
+20:00
+12:14</t>
   </si>
 </sst>
 </file>
@@ -241,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -255,6 +525,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -564,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -580,13 +853,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="36" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -637,14 +910,14 @@
       <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="36" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
@@ -693,10 +966,370 @@
       <c r="S2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="5"/>
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="16">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="T5:T6"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>

--- a/src/main/resources/files/2.xlsx
+++ b/src/main/resources/files/2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandr\Documents\inbulk\ARJava\src\main\resources\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandr\Documents\inbulk\InbulkArJava\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E6C90A-4846-43E8-B2A7-0399CB1C314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDD986A-078C-4E15-A247-8CFE4AF98E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t/>
   </si>
@@ -153,276 +153,6 @@
     <t>7:59
 17:03
 9:00</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Джамгирчиев 
-Майрамбек</t>
-  </si>
-  <si>
-    <t>7:42
-20:08
-12:26</t>
-  </si>
-  <si>
-    <t>8:00
-20:06
-12:05</t>
-  </si>
-  <si>
-    <t>7:50
-20:03
-12:13</t>
-  </si>
-  <si>
-    <t>7:52
-20:05
-12:13</t>
-  </si>
-  <si>
-    <t>7:59
-17:08
-9:08</t>
-  </si>
-  <si>
-    <t>7:51
-17:02
-9:10</t>
-  </si>
-  <si>
-    <t>7:52
-17:04
-9:11</t>
-  </si>
-  <si>
-    <t>7:52
-20:04
-12:11</t>
-  </si>
-  <si>
-    <t>7:54
-20:02
-12:08</t>
-  </si>
-  <si>
-    <t>263:36</t>
-  </si>
-  <si>
-    <t>7:57
-17:01
-9:04</t>
-  </si>
-  <si>
-    <t>7:58
-17:02
-9:04</t>
-  </si>
-  <si>
-    <t>7:56
-20:03
-12:06</t>
-  </si>
-  <si>
-    <t>8:01
-20:04
-12:02</t>
-  </si>
-  <si>
-    <t>7:58
-20:02
-12:04</t>
-  </si>
-  <si>
-    <t>7:52
-20:02
-12:09</t>
-  </si>
-  <si>
-    <t>7:59
-17:06
-9:06</t>
-  </si>
-  <si>
-    <t>8:00
-17:10
-9:10</t>
-  </si>
-  <si>
-    <t>7:56
-20:06
-12:10</t>
-  </si>
-  <si>
-    <t>7:56
-20:07
-12:11</t>
-  </si>
-  <si>
-    <t>7:54
-21:58
-14:04</t>
-  </si>
-  <si>
-    <t>7:53
-20:01
-12:07</t>
-  </si>
-  <si>
-    <t>7:58
-17:10
-9:12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Жороева 
-Саида</t>
-  </si>
-  <si>
-    <t>8:00
-17:06
-9:05</t>
-  </si>
-  <si>
-    <t>8:20
-19:26
-11:06</t>
-  </si>
-  <si>
-    <t>7:58
-20:04
-12:05</t>
-  </si>
-  <si>
-    <t>8:02
-20:04
-12:02</t>
-  </si>
-  <si>
-    <t>8:05
-17:06
-9:01</t>
-  </si>
-  <si>
-    <t>7:58
-17:02
-9:03</t>
-  </si>
-  <si>
-    <t>7:59
-16:58
-8:59</t>
-  </si>
-  <si>
-    <t>7:53
-19:59
-12:06</t>
-  </si>
-  <si>
-    <t>7:58
-20:00
-12:02</t>
-  </si>
-  <si>
-    <t>237:37</t>
-  </si>
-  <si>
-    <t>7:59
-17:03
-9:03</t>
-  </si>
-  <si>
-    <t>8:01
-17:06
-9:05</t>
-  </si>
-  <si>
-    <t>8:04
-20:06
-12:02</t>
-  </si>
-  <si>
-    <t>7:58
-20:00
-12:01</t>
-  </si>
-  <si>
-    <t>8:01
-20:03
-12:01</t>
-  </si>
-  <si>
-    <t>8:05
-17:06
-9:00</t>
-  </si>
-  <si>
-    <t>8:02
-17:06
-9:04</t>
-  </si>
-  <si>
-    <t>8:02
-20:05
-12:02</t>
-  </si>
-  <si>
-    <t>8:05
-20:04
-11:59</t>
-  </si>
-  <si>
-    <t>9:00
-20:02
-11:01</t>
-  </si>
-  <si>
-    <t>7:05
-15:06
-8:00</t>
-  </si>
-  <si>
-    <t>8:04
-17:07
-9:02</t>
-  </si>
-  <si>
-    <t>7:59
-17:02
-9:03</t>
-  </si>
-  <si>
-    <t>7:58
-16:32
-8:34</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Каримова 
-Зироат</t>
-  </si>
-  <si>
-    <t>36:23</t>
-  </si>
-  <si>
-    <t>7:58
-20:07
-12:09</t>
-  </si>
-  <si>
-    <t>8:04
-20:04
-11:59</t>
-  </si>
-  <si>
-    <t>7:45
-20:00
-12:14</t>
   </si>
 </sst>
 </file>
@@ -511,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -525,9 +255,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -837,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -853,13 +580,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="36" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -910,14 +637,14 @@
       <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="36" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
@@ -966,370 +693,10 @@
       <c r="S2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="6"/>
-    </row>
-    <row r="3" spans="1:20" ht="36" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="36" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" ht="36" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="36" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" ht="36" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="36" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="6"/>
+      <c r="T2" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="T5:T6"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
